--- a/Country List.xlsx
+++ b/Country List.xlsx
@@ -619,19 +619,19 @@
     <t>Part</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Official Language</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
 </sst>
 </file>
@@ -1028,11 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>145</v>
@@ -1074,777 +1073,807 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
-        <v>28748</v>
+        <v>78866</v>
       </c>
       <c r="C2" s="3">
-        <v>2831741</v>
+        <v>10256760</v>
       </c>
       <c r="D2" s="4">
-        <v>98.5</v>
+        <v>130.1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1"/>
+      <c r="H2" t="s">
+        <v>146</v>
+      </c>
       <c r="I2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4">
-        <v>468</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>312685</v>
       </c>
       <c r="C3" s="3">
-        <v>68403</v>
+        <v>38625478</v>
       </c>
       <c r="D3" s="4">
-        <v>146.19999999999999</v>
+        <v>123.5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
       <c r="I3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="3">
-        <v>29800</v>
+        <v>43094</v>
       </c>
       <c r="C4" s="3">
-        <v>3229900</v>
+        <v>5564219</v>
       </c>
       <c r="D4" s="4">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>146</v>
+      </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>78866</v>
+        <v>336593</v>
       </c>
       <c r="C5" s="3">
-        <v>10256760</v>
+        <v>5157537</v>
       </c>
       <c r="D5" s="4">
-        <v>130.1</v>
+        <v>15.3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
         <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>86600</v>
+        <v>103000</v>
       </c>
       <c r="C6" s="3">
-        <v>9165000</v>
+        <v>307261</v>
       </c>
       <c r="D6" s="4">
-        <v>105.8</v>
+        <v>2.7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>146</v>
+      </c>
       <c r="I6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3">
-        <v>207560</v>
+        <v>70280</v>
       </c>
       <c r="C7" s="3">
-        <v>9458000</v>
+        <v>4234925</v>
       </c>
       <c r="D7" s="4">
-        <v>45.6</v>
+        <v>60.3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1"/>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
       <c r="I7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>2724900</v>
+        <v>385178</v>
       </c>
       <c r="C8" s="3">
-        <v>15217711</v>
+        <v>5018836</v>
       </c>
       <c r="D8" s="4">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1"/>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
       <c r="I8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>51129</v>
+        <v>449964</v>
       </c>
       <c r="C9" s="3">
-        <v>3843126</v>
+        <v>9090113</v>
       </c>
       <c r="D9" s="4">
-        <v>75.2</v>
+        <v>19.7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
       <c r="I9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>110910</v>
+        <v>244820</v>
       </c>
       <c r="C10" s="3">
-        <v>7621337</v>
+        <v>64105654</v>
       </c>
       <c r="D10" s="4">
-        <v>68.7</v>
+        <v>244.2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>146</v>
+      </c>
       <c r="I10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>56542</v>
+        <v>131957</v>
       </c>
       <c r="C11" s="3">
-        <v>4437460</v>
+        <v>11123034</v>
       </c>
       <c r="D11" s="4">
-        <v>77.7</v>
+        <v>80.7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
       <c r="I11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>9251</v>
+        <v>301230</v>
       </c>
       <c r="C12" s="3">
-        <v>788457</v>
+        <v>59530464</v>
       </c>
       <c r="D12" s="4">
-        <v>85</v>
+        <v>197.7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1"/>
+      <c r="H12" t="s">
+        <v>146</v>
+      </c>
       <c r="I12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B13" s="3">
-        <v>312685</v>
+        <v>91568</v>
       </c>
       <c r="C13" s="3">
-        <v>38625478</v>
+        <v>10409995</v>
       </c>
       <c r="D13" s="4">
-        <v>123.5</v>
+        <v>110.1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
         <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>43094</v>
+        <v>504851</v>
       </c>
       <c r="C14" s="3">
-        <v>5564219</v>
+        <v>47059533</v>
       </c>
       <c r="D14" s="4">
-        <v>129</v>
+        <v>93.2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" t="s">
         <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45226</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1340194</v>
-      </c>
-      <c r="D15" s="4">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="C15" s="4">
+        <v>900</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2045.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G15" s="1"/>
+      <c r="H15" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>336593</v>
+        <v>83858</v>
       </c>
       <c r="C16" s="3">
-        <v>5157537</v>
+        <v>8169929</v>
       </c>
       <c r="D16" s="4">
-        <v>15.3</v>
+        <v>97.4</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" t="s">
         <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>103000</v>
+        <v>30528</v>
       </c>
       <c r="C17" s="3">
-        <v>307261</v>
+        <v>11007000</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7</v>
+        <v>360.6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
         <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3">
-        <v>69700</v>
+        <v>547030</v>
       </c>
       <c r="C18" s="3">
-        <v>4661473</v>
+        <v>66104000</v>
       </c>
       <c r="D18" s="4">
-        <v>64</v>
+        <v>115.5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1"/>
+      <c r="H18" t="s">
+        <v>146</v>
+      </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>70280</v>
+        <v>357021</v>
       </c>
       <c r="C19" s="3">
-        <v>4234925</v>
+        <v>80716000</v>
       </c>
       <c r="D19" s="4">
-        <v>60.3</v>
+        <v>233.2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" t="s">
         <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>385178</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.95</v>
       </c>
       <c r="C20" s="3">
-        <v>5018836</v>
-      </c>
-      <c r="D20" s="4">
-        <v>15.5</v>
+        <v>31987</v>
+      </c>
+      <c r="D20" s="5">
+        <v>16403.599999999999</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" t="s">
         <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B21" s="3">
-        <v>93030</v>
+        <v>41526</v>
       </c>
       <c r="C21" s="3">
-        <v>10075034</v>
+        <v>16902103</v>
       </c>
       <c r="D21" s="4">
-        <v>108.3</v>
+        <v>393</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1"/>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>449964</v>
+        <v>41290</v>
       </c>
       <c r="C22" s="3">
-        <v>9090113</v>
+        <v>7507000</v>
       </c>
       <c r="D22" s="4">
-        <v>19.7</v>
+        <v>176.8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" t="s">
         <v>146</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B23" s="3">
-        <v>244820</v>
+        <v>29800</v>
       </c>
       <c r="C23" s="3">
-        <v>64105654</v>
+        <v>3229900</v>
       </c>
       <c r="D23" s="4">
-        <v>244.2</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" t="s">
-        <v>146</v>
-      </c>
       <c r="I23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B24" s="3">
-        <v>131957</v>
+        <v>86600</v>
       </c>
       <c r="C24" s="3">
-        <v>11123034</v>
+        <v>9165000</v>
       </c>
       <c r="D24" s="4">
-        <v>80.7</v>
+        <v>105.8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
       <c r="I24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>301230</v>
+        <v>207560</v>
       </c>
       <c r="C25" s="3">
-        <v>59530464</v>
+        <v>9458000</v>
       </c>
       <c r="D25" s="4">
-        <v>197.7</v>
+        <v>45.6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
       <c r="I25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B26" s="3">
-        <v>64589</v>
+        <v>2724900</v>
       </c>
       <c r="C26" s="3">
-        <v>2067900</v>
+        <v>15217711</v>
       </c>
       <c r="D26" s="4">
-        <v>34.200000000000003</v>
+        <v>5.6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G26" s="1"/>
       <c r="I26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="4">
-        <v>160</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9251</v>
       </c>
       <c r="C27" s="3">
-        <v>32842</v>
+        <v>788457</v>
       </c>
       <c r="D27" s="4">
-        <v>205.3</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1"/>
       <c r="I27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B28" s="3">
-        <v>65200</v>
+        <v>69700</v>
       </c>
       <c r="C28" s="3">
-        <v>2988400</v>
+        <v>4661473</v>
       </c>
       <c r="D28" s="4">
-        <v>45.8</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1"/>
       <c r="I28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3">
-        <v>2586</v>
+        <v>93030</v>
       </c>
       <c r="C29" s="3">
-        <v>448569</v>
+        <v>10075034</v>
       </c>
       <c r="D29" s="4">
-        <v>173.5</v>
+        <v>108.3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1"/>
       <c r="I29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>25713</v>
+        <v>65200</v>
       </c>
       <c r="C30" s="3">
-        <v>2054800</v>
+        <v>2988400</v>
       </c>
       <c r="D30" s="4">
-        <v>81.099999999999994</v>
+        <v>45.8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1"/>
       <c r="I30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4">
-        <v>316</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33843</v>
       </c>
       <c r="C31" s="3">
-        <v>397499</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1257.9000000000001</v>
+        <v>4434547</v>
+      </c>
+      <c r="D31" s="4">
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1"/>
       <c r="I31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B32" s="3">
-        <v>33843</v>
+        <v>238391</v>
       </c>
       <c r="C32" s="3">
-        <v>4434547</v>
+        <v>21698181</v>
       </c>
       <c r="D32" s="4">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="G32" s="1"/>
       <c r="I32" t="s">
@@ -1853,590 +1882,555 @@
     </row>
     <row r="33" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3">
-        <v>91568</v>
+        <v>17075400</v>
       </c>
       <c r="C33" s="3">
-        <v>10409995</v>
+        <v>143975923</v>
       </c>
       <c r="D33" s="4">
-        <v>110.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" t="s">
-        <v>146</v>
-      </c>
       <c r="I33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3">
-        <v>13812</v>
+        <v>48845</v>
       </c>
       <c r="C34" s="3">
-        <v>616258</v>
+        <v>5422366</v>
       </c>
       <c r="D34" s="4">
-        <v>44.6</v>
+        <v>111</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1"/>
       <c r="I34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="3">
-        <v>504851</v>
+        <v>603700</v>
       </c>
       <c r="C35" s="3">
-        <v>47059533</v>
+        <v>48396470</v>
       </c>
       <c r="D35" s="4">
-        <v>93.2</v>
+        <v>80.2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" t="s">
-        <v>146</v>
-      </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="C36" s="4">
-        <v>900</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2045.5</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45226</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1340194</v>
+      </c>
+      <c r="D36" s="4">
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" t="s">
-        <v>146</v>
-      </c>
       <c r="I36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3">
-        <v>83858</v>
+        <v>64589</v>
       </c>
       <c r="C37" s="3">
-        <v>8169929</v>
+        <v>2067900</v>
       </c>
       <c r="D37" s="4">
-        <v>97.4</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" t="s">
-        <v>146</v>
-      </c>
       <c r="I37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3">
-        <v>30528</v>
+        <v>28748</v>
       </c>
       <c r="C38" s="3">
-        <v>11007000</v>
+        <v>2831741</v>
       </c>
       <c r="D38" s="4">
-        <v>360.6</v>
+        <v>98.5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G38" s="1"/>
-      <c r="H38" t="s">
-        <v>146</v>
-      </c>
       <c r="I38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3">
-        <v>238391</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>468</v>
       </c>
       <c r="C39" s="3">
-        <v>21698181</v>
+        <v>68403</v>
       </c>
       <c r="D39" s="4">
-        <v>91</v>
+        <v>146.19999999999999</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="G39" s="1"/>
       <c r="I39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B40" s="3">
-        <v>17075400</v>
+        <v>51129</v>
       </c>
       <c r="C40" s="3">
-        <v>143975923</v>
+        <v>3843126</v>
       </c>
       <c r="D40" s="4">
-        <v>8.3000000000000007</v>
+        <v>75.2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1"/>
       <c r="I40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="4">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="B41" s="3">
+        <v>110910</v>
       </c>
       <c r="C41" s="3">
-        <v>27730</v>
+        <v>7621337</v>
       </c>
       <c r="D41" s="4">
-        <v>454.6</v>
+        <v>68.7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1"/>
       <c r="I41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>123</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="3">
-        <v>88361</v>
+        <v>56542</v>
       </c>
       <c r="C42" s="3">
-        <v>7120666</v>
+        <v>4437460</v>
       </c>
       <c r="D42" s="4">
-        <v>91.9</v>
+        <v>77.7</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="G42" s="1"/>
       <c r="I42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B43" s="3">
-        <v>48845</v>
+        <v>25713</v>
       </c>
       <c r="C43" s="3">
-        <v>5422366</v>
+        <v>2054800</v>
       </c>
       <c r="D43" s="4">
-        <v>111</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1"/>
       <c r="I43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3">
-        <v>20273</v>
+        <v>34</v>
+      </c>
+      <c r="B44" s="4">
+        <v>316</v>
       </c>
       <c r="C44" s="3">
-        <v>2050189</v>
-      </c>
-      <c r="D44" s="4">
-        <v>101</v>
+        <v>397499</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1257.9000000000001</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="G44" s="1"/>
       <c r="I44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>74</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B45" s="3">
-        <v>547030</v>
+        <v>13812</v>
       </c>
       <c r="C45" s="3">
-        <v>66104000</v>
+        <v>616258</v>
       </c>
       <c r="D45" s="4">
-        <v>115.5</v>
+        <v>44.6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="3">
-        <v>357021</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="4">
+        <v>61</v>
       </c>
       <c r="C46" s="3">
-        <v>80716000</v>
+        <v>27730</v>
       </c>
       <c r="D46" s="4">
-        <v>233.2</v>
+        <v>454.6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
       <c r="I46" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1.95</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="3">
+        <v>88361</v>
       </c>
       <c r="C47" s="3">
-        <v>31987</v>
-      </c>
-      <c r="D47" s="5">
-        <v>16403.599999999999</v>
+        <v>7120666</v>
+      </c>
+      <c r="D47" s="4">
+        <v>91.9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
       <c r="I47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B48" s="3">
-        <v>783562</v>
+        <v>20273</v>
       </c>
       <c r="C48" s="3">
-        <v>77695904</v>
+        <v>2050189</v>
       </c>
       <c r="D48" s="4">
         <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G48" s="1"/>
       <c r="I48" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
+    <row r="49" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B49" s="3">
-        <v>603700</v>
+        <v>783562</v>
       </c>
       <c r="C49" s="3">
-        <v>48396470</v>
+        <v>77695904</v>
       </c>
       <c r="D49" s="4">
-        <v>80.2</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G49" s="1"/>
       <c r="I49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="3">
-        <v>41526</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="4">
+        <v>160</v>
       </c>
       <c r="C50" s="3">
-        <v>16902103</v>
+        <v>32842</v>
       </c>
       <c r="D50" s="4">
-        <v>393</v>
+        <v>205.3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" t="s">
-        <v>146</v>
-      </c>
       <c r="I50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3">
-        <v>41290</v>
+        <v>2586</v>
       </c>
       <c r="C51" s="3">
-        <v>7507000</v>
+        <v>448569</v>
       </c>
       <c r="D51" s="4">
-        <v>176.8</v>
+        <v>173.5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" t="s">
-        <v>146</v>
-      </c>
       <c r="I51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I51">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A5:I51">
-      <sortCondition ref="I1:I51"/>
+    <sortState ref="A2:I51">
+      <sortCondition ref="H1:H51"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="Albania" display="https://en.wikipedia.org/wiki/Albania"/>
-    <hyperlink ref="E2" r:id="rId2" tooltip="Tirana" display="https://en.wikipedia.org/wiki/Tirana"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="Andorra" display="https://en.wikipedia.org/wiki/Andorra"/>
-    <hyperlink ref="E3" r:id="rId4" tooltip="Andorra la Vella" display="https://en.wikipedia.org/wiki/Andorra_la_Vella"/>
-    <hyperlink ref="E4" r:id="rId5" tooltip="Yerevan" display="https://en.wikipedia.org/wiki/Yerevan"/>
-    <hyperlink ref="A37" r:id="rId6" tooltip="Austria" display="https://en.wikipedia.org/wiki/Austria"/>
-    <hyperlink ref="E37" r:id="rId7" tooltip="Vienna" display="https://en.wikipedia.org/wiki/Vienna"/>
-    <hyperlink ref="E6" r:id="rId8" tooltip="Baku" display="https://en.wikipedia.org/wiki/Baku"/>
-    <hyperlink ref="A7" r:id="rId9" tooltip="Belarus" display="https://en.wikipedia.org/wiki/Belarus"/>
-    <hyperlink ref="E7" r:id="rId10" tooltip="Minsk" display="https://en.wikipedia.org/wiki/Minsk"/>
-    <hyperlink ref="A38" r:id="rId11" tooltip="Belgium" display="https://en.wikipedia.org/wiki/Belgium"/>
-    <hyperlink ref="E38" r:id="rId12" tooltip="Brussels" display="https://en.wikipedia.org/wiki/Brussels"/>
-    <hyperlink ref="A9" r:id="rId13" tooltip="Bosnia and Herzegovina" display="https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina"/>
-    <hyperlink ref="E9" r:id="rId14" tooltip="Sarajevo" display="https://en.wikipedia.org/wiki/Sarajevo"/>
-    <hyperlink ref="A10" r:id="rId15" tooltip="Bulgaria" display="https://en.wikipedia.org/wiki/Bulgaria"/>
-    <hyperlink ref="E10" r:id="rId16" tooltip="Sofia" display="https://en.wikipedia.org/wiki/Sofia"/>
-    <hyperlink ref="A11" r:id="rId17" tooltip="Croatia" display="https://en.wikipedia.org/wiki/Croatia"/>
-    <hyperlink ref="E11" r:id="rId18" tooltip="Zagreb" display="https://en.wikipedia.org/wiki/Zagreb"/>
-    <hyperlink ref="E12" r:id="rId19" tooltip="Nicosia" display="https://en.wikipedia.org/wiki/Nicosia"/>
-    <hyperlink ref="A5" r:id="rId20" tooltip="Czech Republic" display="https://en.wikipedia.org/wiki/Czech_Republic"/>
-    <hyperlink ref="E5" r:id="rId21" tooltip="Prague" display="https://en.wikipedia.org/wiki/Prague"/>
-    <hyperlink ref="A14" r:id="rId22" tooltip="Denmark" display="https://en.wikipedia.org/wiki/Denmark"/>
-    <hyperlink ref="E14" r:id="rId23" tooltip="Copenhagen" display="https://en.wikipedia.org/wiki/Copenhagen"/>
-    <hyperlink ref="A15" r:id="rId24" tooltip="Estonia" display="https://en.wikipedia.org/wiki/Estonia"/>
-    <hyperlink ref="E15" r:id="rId25" tooltip="Tallinn" display="https://en.wikipedia.org/wiki/Tallinn"/>
-    <hyperlink ref="A16" r:id="rId26" tooltip="Finland" display="https://en.wikipedia.org/wiki/Finland"/>
-    <hyperlink ref="E16" r:id="rId27" tooltip="Helsinki" display="https://en.wikipedia.org/wiki/Helsinki"/>
-    <hyperlink ref="E45" r:id="rId28" tooltip="Paris" display="https://en.wikipedia.org/wiki/Paris"/>
-    <hyperlink ref="E18" r:id="rId29" tooltip="Tbilisi" display="https://en.wikipedia.org/wiki/Tbilisi"/>
-    <hyperlink ref="A46" r:id="rId30" tooltip="Germany" display="https://en.wikipedia.org/wiki/Germany"/>
-    <hyperlink ref="E46" r:id="rId31" tooltip="Berlin" display="https://en.wikipedia.org/wiki/Berlin"/>
-    <hyperlink ref="A24" r:id="rId32" tooltip="Greece" display="https://en.wikipedia.org/wiki/Greece"/>
-    <hyperlink ref="E24" r:id="rId33" tooltip="Athens" display="https://en.wikipedia.org/wiki/Athens"/>
-    <hyperlink ref="A21" r:id="rId34" tooltip="Hungary" display="https://en.wikipedia.org/wiki/Hungary"/>
-    <hyperlink ref="E21" r:id="rId35" tooltip="Budapest" display="https://en.wikipedia.org/wiki/Budapest"/>
-    <hyperlink ref="A17" r:id="rId36" tooltip="Iceland" display="https://en.wikipedia.org/wiki/Iceland"/>
-    <hyperlink ref="E17" r:id="rId37" tooltip="Reykjavík" display="https://en.wikipedia.org/wiki/Reykjav%C3%ADk"/>
-    <hyperlink ref="A19" r:id="rId38" tooltip="Republic of Ireland" display="https://en.wikipedia.org/wiki/Republic_of_Ireland"/>
-    <hyperlink ref="E19" r:id="rId39" tooltip="Dublin" display="https://en.wikipedia.org/wiki/Dublin"/>
-    <hyperlink ref="A25" r:id="rId40" tooltip="Italy" display="https://en.wikipedia.org/wiki/Italy"/>
-    <hyperlink ref="E25" r:id="rId41" tooltip="Rome" display="https://en.wikipedia.org/wiki/Rome"/>
-    <hyperlink ref="E8" r:id="rId42" tooltip="Astana" display="https://en.wikipedia.org/wiki/Astana"/>
-    <hyperlink ref="A26" r:id="rId43" tooltip="Latvia" display="https://en.wikipedia.org/wiki/Latvia"/>
-    <hyperlink ref="E26" r:id="rId44" tooltip="Riga" display="https://en.wikipedia.org/wiki/Riga"/>
-    <hyperlink ref="A27" r:id="rId45" tooltip="Liechtenstein" display="https://en.wikipedia.org/wiki/Liechtenstein"/>
-    <hyperlink ref="E27" r:id="rId46" tooltip="Vaduz" display="https://en.wikipedia.org/wiki/Vaduz"/>
-    <hyperlink ref="A28" r:id="rId47" tooltip="Lithuania" display="https://en.wikipedia.org/wiki/Lithuania"/>
-    <hyperlink ref="E28" r:id="rId48" tooltip="Vilnius" display="https://en.wikipedia.org/wiki/Vilnius"/>
-    <hyperlink ref="A29" r:id="rId49" tooltip="Luxembourg" display="https://en.wikipedia.org/wiki/Luxembourg"/>
-    <hyperlink ref="E29" r:id="rId50" tooltip="Luxembourg (city)" display="https://en.wikipedia.org/wiki/Luxembourg_%28city%29"/>
-    <hyperlink ref="A30" r:id="rId51" tooltip="Republic of Macedonia" display="https://en.wikipedia.org/wiki/Republic_of_Macedonia"/>
-    <hyperlink ref="E30" r:id="rId52" tooltip="Skopje" display="https://en.wikipedia.org/wiki/Skopje"/>
-    <hyperlink ref="A31" r:id="rId53" tooltip="Malta" display="https://en.wikipedia.org/wiki/Malta"/>
-    <hyperlink ref="E31" r:id="rId54" tooltip="Valletta" display="https://en.wikipedia.org/wiki/Valletta"/>
-    <hyperlink ref="E32" r:id="rId55" tooltip="Chișinău" display="https://en.wikipedia.org/wiki/Chi%C8%99in%C4%83u"/>
-    <hyperlink ref="A47" r:id="rId56" tooltip="Monaco" display="https://en.wikipedia.org/wiki/Monaco"/>
-    <hyperlink ref="E47" r:id="rId57" tooltip="Monaco" display="https://en.wikipedia.org/wiki/Monaco"/>
-    <hyperlink ref="A34" r:id="rId58" tooltip="Montenegro" display="https://en.wikipedia.org/wiki/Montenegro"/>
-    <hyperlink ref="E34" r:id="rId59" tooltip="Podgorica" display="https://en.wikipedia.org/wiki/Podgorica"/>
-    <hyperlink ref="E50" r:id="rId60" tooltip="Amsterdam" display="https://en.wikipedia.org/wiki/Amsterdam"/>
-    <hyperlink ref="A20" r:id="rId61" tooltip="Norway" display="https://en.wikipedia.org/wiki/Norway"/>
-    <hyperlink ref="E20" r:id="rId62" tooltip="Oslo" display="https://en.wikipedia.org/wiki/Oslo"/>
-    <hyperlink ref="A13" r:id="rId63" tooltip="Poland" display="https://en.wikipedia.org/wiki/Poland"/>
-    <hyperlink ref="E13" r:id="rId64" tooltip="Warsaw" display="https://en.wikipedia.org/wiki/Warsaw"/>
-    <hyperlink ref="E33" r:id="rId65" tooltip="Lisbon" display="https://en.wikipedia.org/wiki/Lisbon"/>
-    <hyperlink ref="A39" r:id="rId66" tooltip="Romania" display="https://en.wikipedia.org/wiki/Romania"/>
-    <hyperlink ref="E39" r:id="rId67" tooltip="Bucharest" display="https://en.wikipedia.org/wiki/Bucharest"/>
-    <hyperlink ref="E40" r:id="rId68" tooltip="Moscow" display="https://en.wikipedia.org/wiki/Moscow"/>
-    <hyperlink ref="A41" r:id="rId69" tooltip="San Marino" display="https://en.wikipedia.org/wiki/San_Marino"/>
-    <hyperlink ref="E41" r:id="rId70" tooltip="San Marino, San Marino" display="https://en.wikipedia.org/wiki/San_Marino,_San_Marino"/>
-    <hyperlink ref="E42" r:id="rId71" tooltip="Belgrade" display="https://en.wikipedia.org/wiki/Belgrade"/>
-    <hyperlink ref="A43" r:id="rId72" tooltip="Slovakia" display="https://en.wikipedia.org/wiki/Slovakia"/>
-    <hyperlink ref="E43" r:id="rId73" tooltip="Bratislava" display="https://en.wikipedia.org/wiki/Bratislava"/>
-    <hyperlink ref="A44" r:id="rId74" tooltip="Slovenia" display="https://en.wikipedia.org/wiki/Slovenia"/>
-    <hyperlink ref="E44" r:id="rId75" tooltip="Ljubljana" display="https://en.wikipedia.org/wiki/Ljubljana"/>
-    <hyperlink ref="A35" r:id="rId76" tooltip="Spain" display="https://en.wikipedia.org/wiki/Spain"/>
-    <hyperlink ref="E35" r:id="rId77" tooltip="Madrid" display="https://en.wikipedia.org/wiki/Madrid"/>
-    <hyperlink ref="A22" r:id="rId78" tooltip="Sweden" display="https://en.wikipedia.org/wiki/Sweden"/>
-    <hyperlink ref="E22" r:id="rId79" tooltip="Stockholm" display="https://en.wikipedia.org/wiki/Stockholm"/>
-    <hyperlink ref="A51" r:id="rId80" tooltip="Switzerland" display="https://en.wikipedia.org/wiki/Switzerland"/>
-    <hyperlink ref="E51" r:id="rId81" tooltip="Bern" display="https://en.wikipedia.org/wiki/Bern"/>
-    <hyperlink ref="E48" r:id="rId82" tooltip="Ankara" display="https://en.wikipedia.org/wiki/Ankara"/>
-    <hyperlink ref="A49" r:id="rId83" tooltip="Ukraine" display="https://en.wikipedia.org/wiki/Ukraine"/>
-    <hyperlink ref="E49" r:id="rId84" tooltip="Kiev" display="https://en.wikipedia.org/wiki/Kiev"/>
-    <hyperlink ref="A23" r:id="rId85" tooltip="United Kingdom" display="https://en.wikipedia.org/wiki/United_Kingdom"/>
-    <hyperlink ref="E23" r:id="rId86" tooltip="London" display="https://en.wikipedia.org/wiki/London"/>
-    <hyperlink ref="A36" r:id="rId87" tooltip="Vatican City" display="https://en.wikipedia.org/wiki/Vatican_City"/>
-    <hyperlink ref="E36" r:id="rId88" tooltip="Vatican City" display="https://en.wikipedia.org/wiki/Vatican_City"/>
+    <hyperlink ref="A38" r:id="rId1" tooltip="Albania" display="https://en.wikipedia.org/wiki/Albania"/>
+    <hyperlink ref="E38" r:id="rId2" tooltip="Tirana" display="https://en.wikipedia.org/wiki/Tirana"/>
+    <hyperlink ref="A39" r:id="rId3" tooltip="Andorra" display="https://en.wikipedia.org/wiki/Andorra"/>
+    <hyperlink ref="E39" r:id="rId4" tooltip="Andorra la Vella" display="https://en.wikipedia.org/wiki/Andorra_la_Vella"/>
+    <hyperlink ref="E23" r:id="rId5" tooltip="Yerevan" display="https://en.wikipedia.org/wiki/Yerevan"/>
+    <hyperlink ref="A16" r:id="rId6" tooltip="Austria" display="https://en.wikipedia.org/wiki/Austria"/>
+    <hyperlink ref="E16" r:id="rId7" tooltip="Vienna" display="https://en.wikipedia.org/wiki/Vienna"/>
+    <hyperlink ref="E24" r:id="rId8" tooltip="Baku" display="https://en.wikipedia.org/wiki/Baku"/>
+    <hyperlink ref="A25" r:id="rId9" tooltip="Belarus" display="https://en.wikipedia.org/wiki/Belarus"/>
+    <hyperlink ref="E25" r:id="rId10" tooltip="Minsk" display="https://en.wikipedia.org/wiki/Minsk"/>
+    <hyperlink ref="A17" r:id="rId11" tooltip="Belgium" display="https://en.wikipedia.org/wiki/Belgium"/>
+    <hyperlink ref="E17" r:id="rId12" tooltip="Brussels" display="https://en.wikipedia.org/wiki/Brussels"/>
+    <hyperlink ref="A40" r:id="rId13" tooltip="Bosnia and Herzegovina" display="https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina"/>
+    <hyperlink ref="E40" r:id="rId14" tooltip="Sarajevo" display="https://en.wikipedia.org/wiki/Sarajevo"/>
+    <hyperlink ref="A41" r:id="rId15" tooltip="Bulgaria" display="https://en.wikipedia.org/wiki/Bulgaria"/>
+    <hyperlink ref="E41" r:id="rId16" tooltip="Sofia" display="https://en.wikipedia.org/wiki/Sofia"/>
+    <hyperlink ref="A42" r:id="rId17" tooltip="Croatia" display="https://en.wikipedia.org/wiki/Croatia"/>
+    <hyperlink ref="E42" r:id="rId18" tooltip="Zagreb" display="https://en.wikipedia.org/wiki/Zagreb"/>
+    <hyperlink ref="E27" r:id="rId19" tooltip="Nicosia" display="https://en.wikipedia.org/wiki/Nicosia"/>
+    <hyperlink ref="A2" r:id="rId20" tooltip="Czech Republic" display="https://en.wikipedia.org/wiki/Czech_Republic"/>
+    <hyperlink ref="E2" r:id="rId21" tooltip="Prague" display="https://en.wikipedia.org/wiki/Prague"/>
+    <hyperlink ref="A4" r:id="rId22" tooltip="Denmark" display="https://en.wikipedia.org/wiki/Denmark"/>
+    <hyperlink ref="E4" r:id="rId23" tooltip="Copenhagen" display="https://en.wikipedia.org/wiki/Copenhagen"/>
+    <hyperlink ref="A36" r:id="rId24" tooltip="Estonia" display="https://en.wikipedia.org/wiki/Estonia"/>
+    <hyperlink ref="E36" r:id="rId25" tooltip="Tallinn" display="https://en.wikipedia.org/wiki/Tallinn"/>
+    <hyperlink ref="A5" r:id="rId26" tooltip="Finland" display="https://en.wikipedia.org/wiki/Finland"/>
+    <hyperlink ref="E5" r:id="rId27" tooltip="Helsinki" display="https://en.wikipedia.org/wiki/Helsinki"/>
+    <hyperlink ref="E18" r:id="rId28" tooltip="Paris" display="https://en.wikipedia.org/wiki/Paris"/>
+    <hyperlink ref="E28" r:id="rId29" tooltip="Tbilisi" display="https://en.wikipedia.org/wiki/Tbilisi"/>
+    <hyperlink ref="A19" r:id="rId30" tooltip="Germany" display="https://en.wikipedia.org/wiki/Germany"/>
+    <hyperlink ref="E19" r:id="rId31" tooltip="Berlin" display="https://en.wikipedia.org/wiki/Berlin"/>
+    <hyperlink ref="A11" r:id="rId32" tooltip="Greece" display="https://en.wikipedia.org/wiki/Greece"/>
+    <hyperlink ref="E11" r:id="rId33" tooltip="Athens" display="https://en.wikipedia.org/wiki/Athens"/>
+    <hyperlink ref="A29" r:id="rId34" tooltip="Hungary" display="https://en.wikipedia.org/wiki/Hungary"/>
+    <hyperlink ref="E29" r:id="rId35" tooltip="Budapest" display="https://en.wikipedia.org/wiki/Budapest"/>
+    <hyperlink ref="A6" r:id="rId36" tooltip="Iceland" display="https://en.wikipedia.org/wiki/Iceland"/>
+    <hyperlink ref="E6" r:id="rId37" tooltip="Reykjavík" display="https://en.wikipedia.org/wiki/Reykjav%C3%ADk"/>
+    <hyperlink ref="A7" r:id="rId38" tooltip="Republic of Ireland" display="https://en.wikipedia.org/wiki/Republic_of_Ireland"/>
+    <hyperlink ref="E7" r:id="rId39" tooltip="Dublin" display="https://en.wikipedia.org/wiki/Dublin"/>
+    <hyperlink ref="A12" r:id="rId40" tooltip="Italy" display="https://en.wikipedia.org/wiki/Italy"/>
+    <hyperlink ref="E12" r:id="rId41" tooltip="Rome" display="https://en.wikipedia.org/wiki/Rome"/>
+    <hyperlink ref="E26" r:id="rId42" tooltip="Astana" display="https://en.wikipedia.org/wiki/Astana"/>
+    <hyperlink ref="A37" r:id="rId43" tooltip="Latvia" display="https://en.wikipedia.org/wiki/Latvia"/>
+    <hyperlink ref="E37" r:id="rId44" tooltip="Riga" display="https://en.wikipedia.org/wiki/Riga"/>
+    <hyperlink ref="A50" r:id="rId45" tooltip="Liechtenstein" display="https://en.wikipedia.org/wiki/Liechtenstein"/>
+    <hyperlink ref="E50" r:id="rId46" tooltip="Vaduz" display="https://en.wikipedia.org/wiki/Vaduz"/>
+    <hyperlink ref="A30" r:id="rId47" tooltip="Lithuania" display="https://en.wikipedia.org/wiki/Lithuania"/>
+    <hyperlink ref="E30" r:id="rId48" tooltip="Vilnius" display="https://en.wikipedia.org/wiki/Vilnius"/>
+    <hyperlink ref="A51" r:id="rId49" tooltip="Luxembourg" display="https://en.wikipedia.org/wiki/Luxembourg"/>
+    <hyperlink ref="E51" r:id="rId50" tooltip="Luxembourg (city)" display="https://en.wikipedia.org/wiki/Luxembourg_%28city%29"/>
+    <hyperlink ref="A43" r:id="rId51" tooltip="Republic of Macedonia" display="https://en.wikipedia.org/wiki/Republic_of_Macedonia"/>
+    <hyperlink ref="E43" r:id="rId52" tooltip="Skopje" display="https://en.wikipedia.org/wiki/Skopje"/>
+    <hyperlink ref="A44" r:id="rId53" tooltip="Malta" display="https://en.wikipedia.org/wiki/Malta"/>
+    <hyperlink ref="E44" r:id="rId54" tooltip="Valletta" display="https://en.wikipedia.org/wiki/Valletta"/>
+    <hyperlink ref="E31" r:id="rId55" tooltip="Chișinău" display="https://en.wikipedia.org/wiki/Chi%C8%99in%C4%83u"/>
+    <hyperlink ref="A20" r:id="rId56" tooltip="Monaco" display="https://en.wikipedia.org/wiki/Monaco"/>
+    <hyperlink ref="E20" r:id="rId57" tooltip="Monaco" display="https://en.wikipedia.org/wiki/Monaco"/>
+    <hyperlink ref="A45" r:id="rId58" tooltip="Montenegro" display="https://en.wikipedia.org/wiki/Montenegro"/>
+    <hyperlink ref="E45" r:id="rId59" tooltip="Podgorica" display="https://en.wikipedia.org/wiki/Podgorica"/>
+    <hyperlink ref="E21" r:id="rId60" tooltip="Amsterdam" display="https://en.wikipedia.org/wiki/Amsterdam"/>
+    <hyperlink ref="A8" r:id="rId61" tooltip="Norway" display="https://en.wikipedia.org/wiki/Norway"/>
+    <hyperlink ref="E8" r:id="rId62" tooltip="Oslo" display="https://en.wikipedia.org/wiki/Oslo"/>
+    <hyperlink ref="A3" r:id="rId63" tooltip="Poland" display="https://en.wikipedia.org/wiki/Poland"/>
+    <hyperlink ref="E3" r:id="rId64" tooltip="Warsaw" display="https://en.wikipedia.org/wiki/Warsaw"/>
+    <hyperlink ref="E13" r:id="rId65" tooltip="Lisbon" display="https://en.wikipedia.org/wiki/Lisbon"/>
+    <hyperlink ref="A32" r:id="rId66" tooltip="Romania" display="https://en.wikipedia.org/wiki/Romania"/>
+    <hyperlink ref="E32" r:id="rId67" tooltip="Bucharest" display="https://en.wikipedia.org/wiki/Bucharest"/>
+    <hyperlink ref="E33" r:id="rId68" tooltip="Moscow" display="https://en.wikipedia.org/wiki/Moscow"/>
+    <hyperlink ref="A46" r:id="rId69" tooltip="San Marino" display="https://en.wikipedia.org/wiki/San_Marino"/>
+    <hyperlink ref="E46" r:id="rId70" tooltip="San Marino, San Marino" display="https://en.wikipedia.org/wiki/San_Marino,_San_Marino"/>
+    <hyperlink ref="E47" r:id="rId71" tooltip="Belgrade" display="https://en.wikipedia.org/wiki/Belgrade"/>
+    <hyperlink ref="A34" r:id="rId72" tooltip="Slovakia" display="https://en.wikipedia.org/wiki/Slovakia"/>
+    <hyperlink ref="E34" r:id="rId73" tooltip="Bratislava" display="https://en.wikipedia.org/wiki/Bratislava"/>
+    <hyperlink ref="A48" r:id="rId74" tooltip="Slovenia" display="https://en.wikipedia.org/wiki/Slovenia"/>
+    <hyperlink ref="E48" r:id="rId75" tooltip="Ljubljana" display="https://en.wikipedia.org/wiki/Ljubljana"/>
+    <hyperlink ref="A14" r:id="rId76" tooltip="Spain" display="https://en.wikipedia.org/wiki/Spain"/>
+    <hyperlink ref="E14" r:id="rId77" tooltip="Madrid" display="https://en.wikipedia.org/wiki/Madrid"/>
+    <hyperlink ref="A9" r:id="rId78" tooltip="Sweden" display="https://en.wikipedia.org/wiki/Sweden"/>
+    <hyperlink ref="E9" r:id="rId79" tooltip="Stockholm" display="https://en.wikipedia.org/wiki/Stockholm"/>
+    <hyperlink ref="A22" r:id="rId80" tooltip="Switzerland" display="https://en.wikipedia.org/wiki/Switzerland"/>
+    <hyperlink ref="E22" r:id="rId81" tooltip="Bern" display="https://en.wikipedia.org/wiki/Bern"/>
+    <hyperlink ref="E49" r:id="rId82" tooltip="Ankara" display="https://en.wikipedia.org/wiki/Ankara"/>
+    <hyperlink ref="A35" r:id="rId83" tooltip="Ukraine" display="https://en.wikipedia.org/wiki/Ukraine"/>
+    <hyperlink ref="E35" r:id="rId84" tooltip="Kiev" display="https://en.wikipedia.org/wiki/Kiev"/>
+    <hyperlink ref="A10" r:id="rId85" tooltip="United Kingdom" display="https://en.wikipedia.org/wiki/United_Kingdom"/>
+    <hyperlink ref="E10" r:id="rId86" tooltip="London" display="https://en.wikipedia.org/wiki/London"/>
+    <hyperlink ref="A15" r:id="rId87" tooltip="Vatican City" display="https://en.wikipedia.org/wiki/Vatican_City"/>
+    <hyperlink ref="E15" r:id="rId88" tooltip="Vatican City" display="https://en.wikipedia.org/wiki/Vatican_City"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
